--- a/SEM 4/EM - IV/Miscellaneous/M4.xlsx
+++ b/SEM 4/EM - IV/Miscellaneous/M4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 4\EM - IV\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F41E9E5-1DDD-49A1-B7E1-6C456AD75197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C5D22A-477B-43F1-B208-E28DCCFA62DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,14 +196,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -490,7 +490,7 @@
   <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,140 +507,140 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -649,14 +649,14 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -665,72 +665,72 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="E13" s="1" t="s">
+      <c r="C13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -744,13 +744,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SEM 4/EM - IV/Miscellaneous/M4.xlsx
+++ b/SEM 4/EM - IV/Miscellaneous/M4.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 4\EM - IV\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C5D22A-477B-43F1-B208-E28DCCFA62DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E263B33E-13D6-4203-8C05-B1AFB59A2E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
   <si>
     <t>TYPE 1</t>
   </si>
@@ -489,8 +490,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="1"/>
@@ -643,10 +644,10 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1"/>
@@ -735,10 +736,284 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3260B994-D108-4A03-A094-07988ABBF76A}">
+  <dimension ref="B2:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" customWidth="1"/>
+    <col min="7" max="7" width="3.77734375" customWidth="1"/>
+    <col min="9" max="9" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/SEM 4/EM - IV/Miscellaneous/M4.xlsx
+++ b/SEM 4/EM - IV/Miscellaneous/M4.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 4\EM - IV\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E263B33E-13D6-4203-8C05-B1AFB59A2E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A82B329-57C3-430E-A4E0-3226CB7ADED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>TYPE 1</t>
   </si>
@@ -490,8 +489,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,10 +537,10 @@
         <v>11</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -600,10 +599,10 @@
         <v>18</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -614,10 +613,10 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -651,26 +650,26 @@
         <v>22</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="1"/>
@@ -736,280 +735,6 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3260B994-D108-4A03-A094-07988ABBF76A}">
-  <dimension ref="B2:I18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.77734375" customWidth="1"/>
-    <col min="7" max="7" width="3.77734375" customWidth="1"/>
-    <col min="9" max="9" width="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
